--- a/docs/excel/TTimeAward.xlsx
+++ b/docs/excel/TTimeAward.xlsx
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoomType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoomType2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +185,10 @@
   </si>
   <si>
     <t>TableName: "TimeAward" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomType1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +610,7 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,16 +627,16 @@
         <v>35</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>1000</v>
       </c>
       <c r="E5" s="7">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>2000</v>
       </c>
       <c r="E6" s="7">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>3000</v>
       </c>
       <c r="E7" s="7">
-        <v>900</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>4000</v>
       </c>
       <c r="E8" s="7">
-        <v>1200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>5000</v>
       </c>
       <c r="E9" s="7">
-        <v>1500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>6000</v>
       </c>
       <c r="E10" s="7">
-        <v>1800</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TTimeAward.xlsx
+++ b/docs/excel/TTimeAward.xlsx
@@ -610,7 +610,7 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
         <v>1000</v>
       </c>
       <c r="E5" s="7">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>2000</v>
       </c>
       <c r="E6" s="7">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>3000</v>
       </c>
       <c r="E7" s="7">
-        <v>90</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>4000</v>
       </c>
       <c r="E8" s="7">
-        <v>120</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>5000</v>
       </c>
       <c r="E9" s="7">
-        <v>150</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>6000</v>
       </c>
       <c r="E10" s="7">
-        <v>180</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
